--- a/xlsx/incivility.xlsx
+++ b/xlsx/incivility.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">population (total)</t>
   </si>
@@ -34,6 +34,28 @@
   </si>
   <si>
     <t xml:space="preserve">full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response
+(total)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partially completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net response rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8%</t>
   </si>
 </sst>
 </file>
@@ -455,13 +477,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -473,6 +501,12 @@
       </c>
       <c r="C2" t="n">
         <v>426</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
